--- a/result.xlsx
+++ b/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Output" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,182 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>J001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CC[C@@H](CC[C@@H](C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C)C(C)C</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-2.20 cm/s</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Yes; 1 violation: MLOGP&gt;4.15</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>No; 3 violations: WLOGP&gt;5.6, MR&gt;130, #atoms&gt;70</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No; 1 violation: WLOGP&gt;5.88</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No; 2 violations: XLOGP3&gt;5, Heteroatoms&lt;2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CC[C@H](CC[C@@H](C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C)C(C)C</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>